--- a/mc/indicators/xl/CABGDP.xlsx
+++ b/mc/indicators/xl/CABGDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
   <si>
     <t>Economy</t>
   </si>
@@ -8510,104 +8510,104 @@
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
+      <c r="B19" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-8.6</v>
       </c>
       <c r="E19" s="1">
-        <v>-144.5</v>
+        <v>-264.5</v>
       </c>
       <c r="F19" s="1">
-        <v>-111.4</v>
+        <v>-76.3</v>
       </c>
       <c r="G19" s="1">
-        <v>-891.8</v>
+        <v>103.8</v>
       </c>
       <c r="H19" s="1">
-        <v>-62.2</v>
+        <v>-50.7</v>
       </c>
       <c r="I19" s="1">
-        <v>630.8</v>
+        <v>469.6</v>
       </c>
       <c r="J19" s="1">
-        <v>-185.4</v>
+        <v>-59.9</v>
       </c>
       <c r="K19" s="1">
-        <v>228.3</v>
+        <v>-402.2</v>
       </c>
       <c r="L19" s="1">
-        <v>70.2</v>
+        <v>153.1</v>
       </c>
       <c r="M19" s="1">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-12.4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <v>16.6</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-20.9</v>
+      </c>
+      <c r="T19" s="1">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-86.40000000000001</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-117.6</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-310</v>
+      </c>
+      <c r="X19" s="1">
+        <v>-197.2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>742.9</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD19" s="1">
         <v>-5.7</v>
       </c>
-      <c r="N19" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="O19" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>-2.3</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>55.4</v>
-      </c>
-      <c r="R19" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-4.5</v>
-      </c>
-      <c r="T19" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>-67.40000000000001</v>
-      </c>
-      <c r="V19" s="1">
-        <v>-30.6</v>
-      </c>
-      <c r="W19" s="1">
-        <v>23.3</v>
-      </c>
-      <c r="X19" s="1">
-        <v>-22.1</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>-115.6</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>-56.6</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>511.9</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>59.2</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>-25</v>
-      </c>
       <c r="AE19" s="1">
-        <v>-34.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AF19" s="1">
-        <v>-4</v>
+        <v>4.1</v>
       </c>
       <c r="AG19" s="1">
-        <v>32.7</v>
+        <v>9.9</v>
       </c>
       <c r="AH19" s="1">
-        <v>-19.5</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="20" spans="1:34">
